--- a/异常检测实验.xlsx
+++ b/异常检测实验.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="22">
   <si>
     <t>方法(SWaT)</t>
   </si>
@@ -74,7 +74,7 @@
     <t>方法(港口数据集）</t>
   </si>
   <si>
-    <t>方法</t>
+    <t>消融实验</t>
   </si>
   <si>
     <t>没有时间特征提取模块</t>
@@ -93,6 +93,9 @@
   </si>
   <si>
     <t>完整模型</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -718,6 +721,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1030,13 +1036,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D53"/>
+  <dimension ref="A1:G80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="H51" sqref="H51"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="H79" sqref="H79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="21.7777777777778" customWidth="1"/>
     <col min="2" max="2" width="11.4444444444444" customWidth="1"/>
@@ -1127,7 +1133,7 @@
         <v>84.45</v>
       </c>
     </row>
-    <row r="7" ht="43.2" spans="1:4">
+    <row r="7" ht="28.8" spans="1:4">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
@@ -1491,10 +1497,15 @@
         <v>89.97</v>
       </c>
     </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>14</v>
+      </c>
+    </row>
     <row r="46" ht="15" customHeight="1"/>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B47" t="s">
         <v>1</v>
@@ -1588,6 +1599,306 @@
       </c>
       <c r="D53">
         <v>89.97</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>0</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1</v>
+      </c>
+      <c r="C56" t="s">
+        <v>2</v>
+      </c>
+      <c r="D56" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B57">
+        <v>79.52</v>
+      </c>
+      <c r="C57">
+        <v>81.34</v>
+      </c>
+      <c r="D57">
+        <v>80.43</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>16</v>
+      </c>
+      <c r="B58">
+        <v>75.68</v>
+      </c>
+      <c r="C58">
+        <v>72.36</v>
+      </c>
+      <c r="D58">
+        <v>73.97</v>
+      </c>
+    </row>
+    <row r="59" ht="43.2" spans="1:4">
+      <c r="A59" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B59">
+        <v>81.79</v>
+      </c>
+      <c r="C59">
+        <v>83.47</v>
+      </c>
+      <c r="D59">
+        <v>82.63</v>
+      </c>
+    </row>
+    <row r="60" ht="28.8" spans="1:4">
+      <c r="A60" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B60">
+        <v>76.56</v>
+      </c>
+      <c r="C60" s="1">
+        <v>78.93</v>
+      </c>
+      <c r="D60">
+        <v>77.74</v>
+      </c>
+    </row>
+    <row r="61" ht="28.8" spans="1:4">
+      <c r="A61" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B61">
+        <v>69.37</v>
+      </c>
+      <c r="C61">
+        <v>74.85</v>
+      </c>
+      <c r="D61">
+        <v>72.02</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>20</v>
+      </c>
+      <c r="B62">
+        <v>86.59</v>
+      </c>
+      <c r="C62">
+        <v>88.47</v>
+      </c>
+      <c r="D62">
+        <v>87.52</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>11</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1</v>
+      </c>
+      <c r="C65" t="s">
+        <v>2</v>
+      </c>
+      <c r="D65" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>15</v>
+      </c>
+      <c r="B66">
+        <v>84.79</v>
+      </c>
+      <c r="C66">
+        <v>80.24</v>
+      </c>
+      <c r="D66">
+        <v>82.44</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>16</v>
+      </c>
+      <c r="B67">
+        <v>81.95</v>
+      </c>
+      <c r="C67">
+        <v>69.42</v>
+      </c>
+      <c r="D67">
+        <v>75.47</v>
+      </c>
+    </row>
+    <row r="68" ht="43.2" spans="1:7">
+      <c r="A68" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B68">
+        <v>89.06</v>
+      </c>
+      <c r="C68">
+        <v>81.37</v>
+      </c>
+      <c r="D68">
+        <v>85.48</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="69" ht="28.8" spans="1:4">
+      <c r="A69" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B69">
+        <v>82.56</v>
+      </c>
+      <c r="C69" s="1">
+        <v>74.39</v>
+      </c>
+      <c r="D69" s="1">
+        <v>78.3</v>
+      </c>
+    </row>
+    <row r="70" ht="28.8" spans="1:4">
+      <c r="A70" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B70">
+        <v>76.87</v>
+      </c>
+      <c r="C70" s="1">
+        <v>71.4</v>
+      </c>
+      <c r="D70">
+        <v>73.96</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
+        <v>20</v>
+      </c>
+      <c r="B71">
+        <v>95.46</v>
+      </c>
+      <c r="C71">
+        <v>85.17</v>
+      </c>
+      <c r="D71">
+        <v>90.02</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
+        <v>12</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1</v>
+      </c>
+      <c r="C74" t="s">
+        <v>2</v>
+      </c>
+      <c r="D74" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
+        <v>15</v>
+      </c>
+      <c r="B75">
+        <v>83.71</v>
+      </c>
+      <c r="C75">
+        <v>85.65</v>
+      </c>
+      <c r="D75">
+        <v>84.67</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
+        <v>16</v>
+      </c>
+      <c r="B76">
+        <v>85.62</v>
+      </c>
+      <c r="C76">
+        <v>78.43</v>
+      </c>
+      <c r="D76">
+        <v>81.79</v>
+      </c>
+    </row>
+    <row r="77" ht="43.2" spans="1:7">
+      <c r="A77" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B77">
+        <v>84.57</v>
+      </c>
+      <c r="C77">
+        <v>89.26</v>
+      </c>
+      <c r="D77">
+        <v>86.84</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="78" ht="28.8" spans="1:4">
+      <c r="A78" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B78">
+        <v>78.65</v>
+      </c>
+      <c r="C78" s="1">
+        <v>83.27</v>
+      </c>
+      <c r="D78" s="1">
+        <v>80.04</v>
+      </c>
+    </row>
+    <row r="79" ht="28.8" spans="1:4">
+      <c r="A79" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B79">
+        <v>80.93</v>
+      </c>
+      <c r="C79" s="1">
+        <v>74.81</v>
+      </c>
+      <c r="D79">
+        <v>77.74</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" t="s">
+        <v>20</v>
+      </c>
+      <c r="B80">
+        <v>93.68</v>
+      </c>
+      <c r="C80">
+        <v>95.49</v>
+      </c>
+      <c r="D80">
+        <v>94.58</v>
       </c>
     </row>
   </sheetData>
